--- a/medicine/Sexualité et sexologie/Kiki,_l'amour_en_fête/Kiki,_l'amour_en_fête.xlsx
+++ b/medicine/Sexualité et sexologie/Kiki,_l'amour_en_fête/Kiki,_l'amour_en_fête.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kiki,_l%27amour_en_f%C3%AAte</t>
+          <t>Kiki,_l'amour_en_fête</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kiki, l'amour en fête (Kiki, el amor se hace) est un film espagnol réalisé par Paco León, sorti en 2016. Il s'agit d'un remake du film australien If You Love Me... de Josh Lawson.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kiki,_l%27amour_en_f%C3%AAte</t>
+          <t>Kiki,_l'amour_en_fête</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À Madrid, cinq couples explorent leur sexualité.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kiki,_l%27amour_en_f%C3%AAte</t>
+          <t>Kiki,_l'amour_en_fête</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Kiki, l'amour en fête
 Titre original : Kiki, el amor se hace
@@ -558,7 +574,7 @@
 Durée : 102 minutes
 Dates de sortie :
  Espagne : 1er avril 2016
- Suisse : 31 août 2016 (Romandie) ; 17 novembre 2016 (Suisse allemande)[1]</t>
+ Suisse : 31 août 2016 (Romandie) ; 17 novembre 2016 (Suisse allemande)</t>
         </is>
       </c>
     </row>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kiki,_l%27amour_en_f%C3%AAte</t>
+          <t>Kiki,_l'amour_en_fête</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Paco León : Paco
 Ana Katz : Ana
@@ -621,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kiki,_l%27amour_en_f%C3%AAte</t>
+          <t>Kiki,_l'amour_en_fête</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,9 +657,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a été nommé pour quatre prix Goya[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été nommé pour quatre prix Goya.
 </t>
         </is>
       </c>
